--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B6087-4658-455B-8798-D9F6E7DA3B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116FE7A-9231-4F01-B0DF-75068ED467E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Nombre de la Instancia</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>ILS (Iterated Local Search)</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,147 +664,246 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>4663</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
-        <v>1290319</v>
+        <v>6656</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4">
-        <v>1646884</v>
+        <v>9745</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F6" si="0">(E4-C4)/E4</f>
-        <v>0.21650887372759708</v>
+        <v>0.31698306824012312</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="e">
-        <f>(H4-C4)/H4</f>
-        <v>#DIV/0!</v>
+      <c r="H4" s="4">
+        <v>8106</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I6" si="1">(H4-C4)/H4</f>
+        <v>0.17887984209227734</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="e">
-        <f>(K4-F4)/K4</f>
+        <f t="shared" ref="L4:L6" si="2">(K4-F4)/K4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>9882</v>
-      </c>
-      <c r="C5" s="2">
-        <v>300899</v>
+        <v>194</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9352</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="5">
-        <v>388944</v>
+      <c r="E5" s="4">
+        <v>11640</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.22636934880085566</v>
+        <v>0.19656357388316151</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3" t="e">
-        <f>(H5-C5)/H5</f>
-        <v>#DIV/0!</v>
+      <c r="H5" s="4">
+        <v>11510</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18748913987836663</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3" t="e">
-        <f>(K5-F5)/K5</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>10639</v>
-      </c>
-      <c r="C6" s="2">
-        <v>520527</v>
+        <v>734</v>
+      </c>
+      <c r="C6" s="1">
+        <v>79114</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="5">
-        <v>649600</v>
+      <c r="E6" s="4">
+        <v>99247</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.19869612068965517</v>
+        <v>0.20285751710379155</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3" t="e">
-        <f>(H6-C6)/H6</f>
-        <v>#DIV/0!</v>
+      <c r="H6" s="4">
+        <v>100147</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2100212687349596</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="3" t="e">
-        <f>(K6-F6)/K6</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7">
-        <f>SUM(D3:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <f>SUM(E3:E6)</f>
-        <v>2721816</v>
-      </c>
-      <c r="F7" s="8">
-        <f>AVERAGE(F3:F6)</f>
-        <v>0.22075002199228119</v>
-      </c>
-      <c r="G7" s="7">
-        <f>SUM(G3:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <f>SUM(H3:H6)</f>
-        <v>30357</v>
-      </c>
-      <c r="I7" s="8" t="e">
-        <f>AVERAGE(I3:I6)</f>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4663</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1290319</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4">
+        <v>1646884</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F9" si="3">(E7-C7)/E7</f>
+        <v>0.21650887372759708</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="e">
+        <f>(H7-C7)/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="7">
-        <f>SUM(J3:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f>SUM(K3:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="e">
-        <f>AVERAGE(L3:L6)</f>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3" t="e">
+        <f>(K7-F7)/K7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9882</v>
+      </c>
+      <c r="C8" s="2">
+        <v>300899</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <v>388944</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.22636934880085566</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3" t="e">
+        <f>(H8-C8)/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3" t="e">
+        <f>(K8-F8)/K8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10639</v>
+      </c>
+      <c r="C9" s="2">
+        <v>520527</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5">
+        <v>649600</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.19869612068965517</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="e">
+        <f>(H9-C9)/H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3" t="e">
+        <f>(K9-F9)/K9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7">
+        <f>SUM(D3:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>SUM(E3:E9)</f>
+        <v>2842448</v>
+      </c>
+      <c r="F10" s="8">
+        <f>AVERAGE(F3:F9)</f>
+        <v>0.22848632102802871</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(G3:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(H3:H9)</f>
+        <v>150120</v>
+      </c>
+      <c r="I10" s="8" t="e">
+        <f>AVERAGE(I3:I9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM(J3:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f>SUM(K3:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="e">
+        <f>AVERAGE(L3:L9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116FE7A-9231-4F01-B0DF-75068ED467E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334843B2-F083-47CD-BF32-3D0DBAB213F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JuanG</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{C9594333-4DFE-4F8F-8449-271BB4903745}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JuanG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No toma en cuenta el tiempo que tarda en generar la matriz de distancias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{E6E8D24C-A900-44DD-A0FC-EC29919F6ED4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JuanG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No toma en cuenta el tiempo que tarda en generar la matriz de distancias</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
@@ -93,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +173,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -196,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,10 +627,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -572,35 +646,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
@@ -639,7 +713,9 @@
       <c r="C3" s="1">
         <v>27603</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="E3" s="4">
         <v>36388</v>
       </c>
@@ -647,7 +723,9 @@
         <f>(E3-C3)/E3</f>
         <v>0.24142574475101683</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
       <c r="H3" s="4">
         <v>30357</v>
       </c>
@@ -655,11 +733,15 @@
         <f>(H3-C3)/H3</f>
         <v>9.0720426919656094E-2</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3" t="e">
-        <f>(K3-F3)/K3</f>
-        <v>#DIV/0!</v>
+      <c r="J3" s="2">
+        <v>2.5406</v>
+      </c>
+      <c r="K3" s="4">
+        <v>27603</v>
+      </c>
+      <c r="L3" s="3">
+        <f>(K3-C3)/K3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,7 +754,9 @@
       <c r="C4" s="1">
         <v>6656</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
       <c r="E4" s="4">
         <v>9745</v>
       </c>
@@ -680,7 +764,9 @@
         <f t="shared" ref="F4:F6" si="0">(E4-C4)/E4</f>
         <v>0.31698306824012312</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
       <c r="H4" s="4">
         <v>8106</v>
       </c>
@@ -688,11 +774,15 @@
         <f t="shared" ref="I4:I6" si="1">(H4-C4)/H4</f>
         <v>0.17887984209227734</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="e">
-        <f t="shared" ref="L4:L6" si="2">(K4-F4)/K4</f>
-        <v>#DIV/0!</v>
+      <c r="J4" s="10">
+        <v>4.8601999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6808</v>
+      </c>
+      <c r="L4" s="3">
+        <f>(K4-C4)/K4</f>
+        <v>2.2326674500587545E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,7 +795,9 @@
       <c r="C5" s="1">
         <v>9352</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>4.3E-3</v>
+      </c>
       <c r="E5" s="4">
         <v>11640</v>
       </c>
@@ -713,7 +805,9 @@
         <f t="shared" si="0"/>
         <v>0.19656357388316151</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0.1804</v>
+      </c>
       <c r="H5" s="4">
         <v>11510</v>
       </c>
@@ -721,11 +815,15 @@
         <f t="shared" si="1"/>
         <v>0.18748913987836663</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="J5" s="2">
+        <v>32.435699999999997</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10830</v>
+      </c>
+      <c r="L5" s="3">
+        <f>(K5-C5)/K5</f>
+        <v>0.13647276084949214</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -738,7 +836,9 @@
       <c r="C6" s="1">
         <v>79114</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5.3100000000000001E-2</v>
+      </c>
       <c r="E6" s="4">
         <v>99247</v>
       </c>
@@ -746,7 +846,9 @@
         <f t="shared" si="0"/>
         <v>0.20285751710379155</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>5.6135999999999999</v>
+      </c>
       <c r="H6" s="4">
         <v>100147</v>
       </c>
@@ -754,11 +856,15 @@
         <f t="shared" si="1"/>
         <v>0.2100212687349596</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="J6" s="2">
+        <v>79.882400000000004</v>
+      </c>
+      <c r="K6" s="4">
+        <v>95007</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(K6-C6)/K6</f>
+        <v>0.16728241076973277</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -771,12 +877,14 @@
       <c r="C7" s="1">
         <v>1290319</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>4.3745000000000003</v>
+      </c>
       <c r="E7" s="4">
         <v>1646884</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F9" si="3">(E7-C7)/E7</f>
+        <f t="shared" ref="F7:F9" si="2">(E7-C7)/E7</f>
         <v>0.21650887372759708</v>
       </c>
       <c r="G7" s="2"/>
@@ -802,12 +910,14 @@
       <c r="C8" s="2">
         <v>300899</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>9.2074999999999996</v>
+      </c>
       <c r="E8" s="5">
         <v>388944</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.22636934880085566</v>
       </c>
       <c r="G8" s="2"/>
@@ -833,12 +943,14 @@
       <c r="C9" s="2">
         <v>520527</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>11.552</v>
+      </c>
       <c r="E9" s="5">
         <v>649600</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.19869612068965517</v>
       </c>
       <c r="G9" s="2"/>
@@ -855,14 +967,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7">
         <f>SUM(D3:D9)</f>
-        <v>0</v>
+        <v>25.192399999999999</v>
       </c>
       <c r="E10" s="7">
         <f>SUM(E3:E9)</f>
@@ -874,7 +986,7 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(G3:G9)</f>
-        <v>0</v>
+        <v>5.7984</v>
       </c>
       <c r="H10" s="7">
         <f>SUM(H3:H9)</f>
@@ -886,11 +998,11 @@
       </c>
       <c r="J10" s="7">
         <f>SUM(J3:J9)</f>
-        <v>0</v>
+        <v>119.7189</v>
       </c>
       <c r="K10" s="7">
         <f>SUM(K3:K9)</f>
-        <v>0</v>
+        <v>140248</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>AVERAGE(L3:L9)</f>
@@ -911,10 +1023,20 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -923,15 +1045,6 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1130,20 +1243,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334843B2-F083-47CD-BF32-3D0DBAB213F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB710C5-B9B8-466E-B4A0-01E01F8EDD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>27603</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>36388</v>
@@ -724,7 +724,7 @@
         <v>0.24142574475101683</v>
       </c>
       <c r="G3" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>30357</v>
@@ -734,7 +734,7 @@
         <v>9.0720426919656094E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>2.5406</v>
+        <v>1.9238</v>
       </c>
       <c r="K3" s="4">
         <v>27603</v>
@@ -755,7 +755,7 @@
         <v>6656</v>
       </c>
       <c r="D4" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>9745</v>
@@ -765,7 +765,7 @@
         <v>0.31698306824012312</v>
       </c>
       <c r="G4" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H4" s="4">
         <v>8106</v>
@@ -778,11 +778,11 @@
         <v>4.8601999999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>6808</v>
+        <v>7075</v>
       </c>
       <c r="L4" s="3">
         <f>(K4-C4)/K4</f>
-        <v>2.2326674500587545E-2</v>
+        <v>5.9222614840989396E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>9352</v>
       </c>
       <c r="D5" s="2">
-        <v>4.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E5" s="4">
         <v>11640</v>
@@ -806,7 +806,7 @@
         <v>0.19656357388316151</v>
       </c>
       <c r="G5" s="2">
-        <v>0.1804</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="H5" s="4">
         <v>11510</v>
@@ -816,14 +816,14 @@
         <v>0.18748913987836663</v>
       </c>
       <c r="J5" s="2">
-        <v>32.435699999999997</v>
+        <v>31.049299999999999</v>
       </c>
       <c r="K5" s="4">
-        <v>10830</v>
+        <v>10900</v>
       </c>
       <c r="L5" s="3">
         <f>(K5-C5)/K5</f>
-        <v>0.13647276084949214</v>
+        <v>0.14201834862385321</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>79114</v>
       </c>
       <c r="D6" s="2">
-        <v>5.3100000000000001E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="E6" s="4">
         <v>99247</v>
@@ -847,7 +847,7 @@
         <v>0.20285751710379155</v>
       </c>
       <c r="G6" s="2">
-        <v>5.6135999999999999</v>
+        <v>3.94</v>
       </c>
       <c r="H6" s="4">
         <v>100147</v>
@@ -857,14 +857,14 @@
         <v>0.2100212687349596</v>
       </c>
       <c r="J6" s="2">
-        <v>79.882400000000004</v>
+        <v>62.617800000000003</v>
       </c>
       <c r="K6" s="4">
-        <v>95007</v>
+        <v>95126</v>
       </c>
       <c r="L6" s="3">
         <f>(K6-C6)/K6</f>
-        <v>0.16728241076973277</v>
+        <v>0.16832411748628134</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="7">
         <f>SUM(D3:D9)</f>
-        <v>25.192399999999999</v>
+        <v>25.171700000000001</v>
       </c>
       <c r="E10" s="7">
         <f>SUM(E3:E9)</f>
@@ -986,7 +986,7 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(G3:G9)</f>
-        <v>5.7984</v>
+        <v>4.0171000000000001</v>
       </c>
       <c r="H10" s="7">
         <f>SUM(H3:H9)</f>
@@ -998,11 +998,11 @@
       </c>
       <c r="J10" s="7">
         <f>SUM(J3:J9)</f>
-        <v>119.7189</v>
+        <v>100.4511</v>
       </c>
       <c r="K10" s="7">
         <f>SUM(K3:K9)</f>
-        <v>140248</v>
+        <v>140704</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>AVERAGE(L3:L9)</f>
@@ -1028,15 +1028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1045,6 +1036,15 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,20 +1243,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB710C5-B9B8-466E-B4A0-01E01F8EDD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5637B-E0A6-42DE-B073-720789A1D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1023,21 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1036,15 +1046,6 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,20 +1244,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5637B-E0A6-42DE-B073-720789A1D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18D767-611B-40F1-9E0A-4A18805B5366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Nombre de la Instancia</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Genético (Chu-Beasley)</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,9 +646,10 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -670,8 +674,13 @@
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -702,8 +711,17 @@
       <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -724,7 +742,7 @@
         <v>0.24142574475101683</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H3" s="4">
         <v>30357</v>
@@ -734,17 +752,27 @@
         <v>9.0720426919656094E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>1.9238</v>
+        <v>2.8788999999999998</v>
       </c>
       <c r="K3" s="4">
-        <v>27603</v>
+        <v>27750</v>
       </c>
       <c r="L3" s="3">
         <f>(K3-C3)/K3</f>
-        <v>0</v>
+        <v>5.2972972972972973E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.3024</v>
+      </c>
+      <c r="N3" s="4">
+        <v>28138</v>
+      </c>
+      <c r="O3" s="3">
+        <f>(N3-C3)/N3</f>
+        <v>1.9013433790603454E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -765,7 +793,7 @@
         <v>0.31698306824012312</v>
       </c>
       <c r="G4" s="2">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H4" s="4">
         <v>8106</v>
@@ -775,17 +803,27 @@
         <v>0.17887984209227734</v>
       </c>
       <c r="J4" s="10">
-        <v>4.8601999999999999</v>
+        <v>11.7013</v>
       </c>
       <c r="K4" s="4">
-        <v>7075</v>
+        <v>6656</v>
       </c>
       <c r="L4" s="3">
         <f>(K4-C4)/K4</f>
-        <v>5.9222614840989396E-2</v>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="N4" s="4">
+        <v>6656</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O9" si="2">(N4-C4)/N4</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -796,7 +834,7 @@
         <v>9352</v>
       </c>
       <c r="D5" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E5" s="4">
         <v>11640</v>
@@ -806,7 +844,7 @@
         <v>0.19656357388316151</v>
       </c>
       <c r="G5" s="2">
-        <v>7.6100000000000001E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="H5" s="4">
         <v>11510</v>
@@ -816,17 +854,27 @@
         <v>0.18748913987836663</v>
       </c>
       <c r="J5" s="2">
-        <v>31.049299999999999</v>
+        <v>62.494700000000002</v>
       </c>
       <c r="K5" s="4">
-        <v>10900</v>
+        <v>10743</v>
       </c>
       <c r="L5" s="3">
         <f>(K5-C5)/K5</f>
-        <v>0.14201834862385321</v>
+        <v>0.12947966117471843</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.9939</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9972</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2174087444845566E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -837,7 +885,7 @@
         <v>79114</v>
       </c>
       <c r="D6" s="2">
-        <v>3.4700000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E6" s="4">
         <v>99247</v>
@@ -847,7 +895,7 @@
         <v>0.20285751710379155</v>
       </c>
       <c r="G6" s="2">
-        <v>3.94</v>
+        <v>3.7833000000000001</v>
       </c>
       <c r="H6" s="4">
         <v>100147</v>
@@ -857,17 +905,27 @@
         <v>0.2100212687349596</v>
       </c>
       <c r="J6" s="2">
-        <v>62.617800000000003</v>
+        <v>77.623099999999994</v>
       </c>
       <c r="K6" s="4">
-        <v>95126</v>
+        <v>95237</v>
       </c>
       <c r="L6" s="3">
         <f>(K6-C6)/K6</f>
-        <v>0.16832411748628134</v>
+        <v>0.16929344687463907</v>
+      </c>
+      <c r="M6" s="2">
+        <v>234.54519999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <v>87238</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3124555812833854E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,7 +942,7 @@
         <v>1646884</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F9" si="2">(E7-C7)/E7</f>
+        <f t="shared" ref="F7:F9" si="3">(E7-C7)/E7</f>
         <v>0.21650887372759708</v>
       </c>
       <c r="G7" s="2"/>
@@ -899,8 +957,14 @@
         <f>(K7-F7)/K7</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -917,7 +981,7 @@
         <v>388944</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22636934880085566</v>
       </c>
       <c r="G8" s="2"/>
@@ -932,8 +996,14 @@
         <f>(K8-F8)/K8</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -950,7 +1020,7 @@
         <v>649600</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19869612068965517</v>
       </c>
       <c r="G9" s="2"/>
@@ -965,8 +1035,14 @@
         <f>(K9-F9)/K9</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -974,7 +1050,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="7">
         <f>SUM(D3:D9)</f>
-        <v>25.171700000000001</v>
+        <v>25.169999999999998</v>
       </c>
       <c r="E10" s="7">
         <f>SUM(E3:E9)</f>
@@ -986,7 +1062,7 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(G3:G9)</f>
-        <v>4.0171000000000001</v>
+        <v>3.8593999999999999</v>
       </c>
       <c r="H10" s="7">
         <f>SUM(H3:H9)</f>
@@ -998,22 +1074,35 @@
       </c>
       <c r="J10" s="7">
         <f>SUM(J3:J9)</f>
-        <v>100.4511</v>
+        <v>154.69799999999998</v>
       </c>
       <c r="K10" s="7">
         <f>SUM(K3:K9)</f>
-        <v>140704</v>
+        <v>140386</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>AVERAGE(L3:L9)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M10" s="7">
+        <f>SUM(M3:M9)</f>
+        <v>240.1437</v>
+      </c>
+      <c r="N10" s="7">
+        <f>SUM(N3:N9)</f>
+        <v>132004</v>
+      </c>
+      <c r="O10" s="8" t="e">
+        <f>AVERAGE(O3:O9)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:A2"/>
@@ -1029,15 +1118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1046,6 +1126,15 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,20 +1333,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18D767-611B-40F1-9E0A-4A18805B5366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875774C-5BAD-4C77-B48A-8B9072DD5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,14 +915,14 @@
         <v>0.16929344687463907</v>
       </c>
       <c r="M6" s="2">
-        <v>234.54519999999999</v>
+        <v>412.65530000000001</v>
       </c>
       <c r="N6" s="4">
-        <v>87238</v>
+        <v>87091</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="2"/>
-        <v>9.3124555812833854E-2</v>
+        <v>9.1593850110803648E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="M10" s="7">
         <f>SUM(M3:M9)</f>
-        <v>240.1437</v>
+        <v>418.25380000000001</v>
       </c>
       <c r="N10" s="7">
         <f>SUM(N3:N9)</f>
-        <v>132004</v>
+        <v>131857</v>
       </c>
       <c r="O10" s="8" t="e">
         <f>AVERAGE(O3:O9)</f>
@@ -1118,6 +1118,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1126,15 +1135,6 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,20 +1333,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875774C-5BAD-4C77-B48A-8B9072DD5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E803E4-3A26-4038-A464-76085287E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,15 +1118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1135,6 +1126,15 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,20 +1333,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/FormatoPruebasRendimientoSegundoCorte.xlsx
+++ b/FormatoPruebasRendimientoSegundoCorte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanG\Documents\salesman-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E803E4-3A26-4038-A464-76085287E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75645E1B-B928-4675-A13E-82DF43A3370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FBFDDC12-32D8-8040-A9BB-2AB090F1F042}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Nombre de la Instancia</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Genético (Chu-Beasley)</t>
+  </si>
+  <si>
+    <t>TSP ORTools</t>
   </si>
 </sst>
 </file>
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB83ACD2-5CC7-664F-A4E0-3B79117716F4}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,7 +652,7 @@
     <col min="14" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -679,8 +682,13 @@
       </c>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -720,8 +728,17 @@
       <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="P2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -771,8 +788,18 @@
         <f>(N3-C3)/N3</f>
         <v>1.9013433790603454E-2</v>
       </c>
+      <c r="P3" s="2">
+        <v>10.0016</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>27603</v>
+      </c>
+      <c r="R3" s="3">
+        <f>(Q3-C3)/Q3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -822,8 +849,18 @@
         <f t="shared" ref="O4:O9" si="2">(N4-C4)/N4</f>
         <v>0</v>
       </c>
+      <c r="P4" s="10">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>6656</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:R6" si="3">(Q4-C4)/Q4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -870,11 +907,21 @@
         <v>9972</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="2"/>
+        <f>(N5-C5)/N5</f>
         <v>6.2174087444845566E-2</v>
       </c>
+      <c r="P5" s="2">
+        <v>10.001799999999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>9755</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.131214761660687E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,8 +971,18 @@
         <f t="shared" si="2"/>
         <v>9.1593850110803648E-2</v>
       </c>
+      <c r="P6" s="2">
+        <v>10.017899999999999</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>85724</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>7.7107927768186271E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,7 +999,7 @@
         <v>1646884</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:F9" si="3">(E7-C7)/E7</f>
+        <f t="shared" ref="F7:F9" si="4">(E7-C7)/E7</f>
         <v>0.21650887372759708</v>
       </c>
       <c r="G7" s="2"/>
@@ -963,8 +1020,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3" t="e">
+        <f t="shared" ref="R4:R9" si="5">(Q7-F7)/Q7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1044,7 @@
         <v>388944</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22636934880085566</v>
       </c>
       <c r="G8" s="2"/>
@@ -1002,8 +1065,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1089,7 @@
         <v>649600</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19869612068965517</v>
       </c>
       <c r="G9" s="2"/>
@@ -1041,8 +1110,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
@@ -1096,12 +1171,25 @@
         <f>AVERAGE(O3:O9)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="P10" s="7">
+        <f>SUM(P3:P9)</f>
+        <v>30.072699999999998</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>SUM(Q3:Q9)</f>
+        <v>129738</v>
+      </c>
+      <c r="R10" s="8" t="e">
+        <f>AVERAGE(R3:R9)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A10:C10"/>
@@ -1118,6 +1206,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b57cc97-55ee-4b28-87ae-29d56e21bbf9">
@@ -1126,15 +1223,6 @@
     <TaxCatchAll xmlns="db919950-9ade-4ed0-af76-99c05809cac8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,20 +1421,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8ABE5F-2D3C-4A44-A543-814B1FA70DC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2b57cc97-55ee-4b28-87ae-29d56e21bbf9"/>
     <ds:schemaRef ds:uri="db919950-9ade-4ed0-af76-99c05809cac8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B377D5C-C6E8-43B4-9005-EE40747FBCE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
